--- a/final_analysis/Analysis long finals-.xlsx
+++ b/final_analysis/Analysis long finals-.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duccioo/Desktop/ai_memory_experiment/final_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1664686A-D67E-BE4C-8A54-B2E029B1EFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D364E655-95A9-E741-B108-B3D2A2E77737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,13 +589,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="N68" sqref="N68"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="19" style="2"/>
+    <col min="1" max="15" width="19" style="2"/>
+    <col min="16" max="16" width="23.83203125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="19" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -748,10 +750,10 @@
         <v>4</v>
       </c>
       <c r="M3" s="2">
-        <v>10.64</v>
+        <v>8.6</v>
       </c>
       <c r="N3" s="2">
-        <v>532.91</v>
+        <v>102.5</v>
       </c>
       <c r="O3" s="2">
         <v>7</v>
@@ -1255,7 +1257,7 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="N12" s="2">
-        <v>313.77999999999997</v>
+        <v>103.6</v>
       </c>
       <c r="O12" s="2">
         <v>7</v>
@@ -1420,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="M15" s="2">
-        <v>13.2</v>
+        <v>6.87</v>
       </c>
       <c r="N15" s="2">
-        <v>379.5</v>
+        <v>105.3</v>
       </c>
       <c r="O15" s="2">
         <v>6</v>
@@ -1588,7 +1590,7 @@
         <v>5</v>
       </c>
       <c r="M18" s="2">
-        <v>8.49</v>
+        <v>4.62</v>
       </c>
       <c r="N18" s="2">
         <v>232.48</v>
@@ -1703,7 +1705,7 @@
         <v>6.91</v>
       </c>
       <c r="N20" s="2">
-        <v>362.08</v>
+        <v>103.5</v>
       </c>
       <c r="O20" s="2">
         <v>5</v>
@@ -1924,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="M24" s="2">
-        <v>11.62</v>
+        <v>10.54</v>
       </c>
       <c r="N24" s="2">
         <v>64.95</v>
@@ -2092,7 +2094,7 @@
         <v>5</v>
       </c>
       <c r="M27" s="2">
-        <v>11.72</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="N27" s="2">
         <v>105.68</v>
@@ -2260,7 +2262,7 @@
         <v>4</v>
       </c>
       <c r="M30" s="2">
-        <v>5.34</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="N30" s="2">
         <v>21.84</v>
@@ -2596,7 +2598,7 @@
         <v>3</v>
       </c>
       <c r="M36" s="2">
-        <v>10.72</v>
+        <v>9.69</v>
       </c>
       <c r="N36" s="2">
         <v>61.99</v>
@@ -2764,7 +2766,7 @@
         <v>3</v>
       </c>
       <c r="M39" s="2">
-        <v>6.96</v>
+        <v>5.44</v>
       </c>
       <c r="N39" s="2">
         <v>91.28</v>
@@ -2932,7 +2934,7 @@
         <v>2</v>
       </c>
       <c r="M42" s="2">
-        <v>3.31</v>
+        <v>2.88</v>
       </c>
       <c r="N42" s="2">
         <v>25.67</v>
@@ -3268,7 +3270,7 @@
         <v>4</v>
       </c>
       <c r="M48" s="2">
-        <v>10.19</v>
+        <v>8.33</v>
       </c>
       <c r="N48" s="2">
         <v>111.65</v>
@@ -3436,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="M51" s="2">
-        <v>9.33</v>
+        <v>5.68</v>
       </c>
       <c r="N51" s="2">
         <v>219.1</v>
@@ -3604,7 +3606,7 @@
         <v>4</v>
       </c>
       <c r="M54" s="2">
-        <v>15</v>
+        <v>13.44</v>
       </c>
       <c r="N54" s="2">
         <v>93.74</v>
@@ -3772,7 +3774,7 @@
         <v>5</v>
       </c>
       <c r="M57" s="2">
-        <v>4.5999999999999996</v>
+        <v>3.57</v>
       </c>
       <c r="N57" s="2">
         <v>61.58</v>
@@ -3940,7 +3942,7 @@
         <v>5</v>
       </c>
       <c r="M60" s="2">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="N60" s="2">
         <v>36.229999999999997</v>
@@ -4108,7 +4110,7 @@
         <v>5</v>
       </c>
       <c r="M63" s="2">
-        <v>5.73</v>
+        <v>3.73</v>
       </c>
       <c r="N63" s="2">
         <v>110.9032</v>
@@ -4276,7 +4278,7 @@
         <v>2</v>
       </c>
       <c r="M66" s="2">
-        <v>14.39</v>
+        <v>11.83</v>
       </c>
       <c r="N66" s="2">
         <v>153.65</v>
@@ -4444,7 +4446,7 @@
         <v>6</v>
       </c>
       <c r="M69" s="2">
-        <v>8.9700000000000006</v>
+        <v>7.09</v>
       </c>
       <c r="N69" s="2">
         <v>113.16</v>
@@ -4612,7 +4614,7 @@
         <v>6</v>
       </c>
       <c r="M72" s="2">
-        <v>12.02</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="N72" s="2">
         <v>135.82</v>

--- a/final_analysis/Analysis long finals-.xlsx
+++ b/final_analysis/Analysis long finals-.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duccioo/Desktop/ai_memory_experiment/final_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D364E655-95A9-E741-B108-B3D2A2E77737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153DB734-C068-3649-B6D1-478768E0AAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="68">
   <si>
     <t>participant_id</t>
   </si>
@@ -219,12 +219,18 @@
   <si>
     <t>Nan</t>
   </si>
+  <si>
+    <t>post_trust</t>
+  </si>
+  <si>
+    <t>post_dependence</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +242,19 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -274,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,6 +304,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -587,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R109"/>
+  <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="N78" zoomScale="119" workbookViewId="0">
+      <selection activeCell="T74" sqref="T74:T109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -600,7 +621,7 @@
     <col min="17" max="16384" width="19" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,8 +676,14 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -711,8 +738,14 @@
       <c r="R2" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2" s="5">
+        <v>3</v>
+      </c>
+      <c r="T2" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -767,8 +800,14 @@
       <c r="R3" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" s="5">
+        <v>3</v>
+      </c>
+      <c r="T3" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -823,8 +862,14 @@
       <c r="R4" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" s="5">
+        <v>3</v>
+      </c>
+      <c r="T4" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -879,8 +924,14 @@
       <c r="R5" s="2">
         <v>5.6669999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5" s="5">
+        <v>4</v>
+      </c>
+      <c r="T5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -935,8 +986,14 @@
       <c r="R6" s="2">
         <v>5.6669999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" s="5">
+        <v>4</v>
+      </c>
+      <c r="T6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -991,8 +1048,14 @@
       <c r="R7" s="2">
         <v>5.6669999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="5">
+        <v>4</v>
+      </c>
+      <c r="T7" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1047,8 +1110,14 @@
       <c r="R8" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="5">
+        <v>4</v>
+      </c>
+      <c r="T8" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -1103,8 +1172,14 @@
       <c r="R9" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="5">
+        <v>4</v>
+      </c>
+      <c r="T9" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1159,8 +1234,14 @@
       <c r="R10" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="5">
+        <v>4</v>
+      </c>
+      <c r="T10" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -1215,8 +1296,14 @@
       <c r="R11" s="2">
         <v>5.6669999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="5">
+        <v>4</v>
+      </c>
+      <c r="T11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1271,8 +1358,14 @@
       <c r="R12" s="2">
         <v>5.6669999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="5">
+        <v>2</v>
+      </c>
+      <c r="T12" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -1327,8 +1420,14 @@
       <c r="R13" s="2">
         <v>5.6669999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="5">
+        <v>2</v>
+      </c>
+      <c r="T13" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1383,8 +1482,14 @@
       <c r="R14" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="5">
+        <v>4</v>
+      </c>
+      <c r="T14" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1439,8 +1544,14 @@
       <c r="R15" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="5">
+        <v>3</v>
+      </c>
+      <c r="T15" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1495,8 +1606,14 @@
       <c r="R16" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="5">
+        <v>2</v>
+      </c>
+      <c r="T16" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -1551,8 +1668,14 @@
       <c r="R17" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="5">
+        <v>5</v>
+      </c>
+      <c r="T17" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1607,8 +1730,14 @@
       <c r="R18" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="5">
+        <v>4</v>
+      </c>
+      <c r="T18" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -1663,8 +1792,14 @@
       <c r="R19" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="5">
+        <v>5</v>
+      </c>
+      <c r="T19" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -1719,8 +1854,14 @@
       <c r="R20" s="2">
         <v>4.3330000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="5">
+        <v>4</v>
+      </c>
+      <c r="T20" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1916,14 @@
       <c r="R21" s="2">
         <v>4.3330000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="5">
+        <v>3</v>
+      </c>
+      <c r="T21" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -1831,8 +1978,14 @@
       <c r="R22" s="2">
         <v>4.3330000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="5">
+        <v>4</v>
+      </c>
+      <c r="T22" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
@@ -1887,8 +2040,14 @@
       <c r="R23" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="5">
+        <v>4</v>
+      </c>
+      <c r="T23" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -1943,8 +2102,14 @@
       <c r="R24" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="5">
+        <v>4</v>
+      </c>
+      <c r="T24" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
@@ -1999,8 +2164,14 @@
       <c r="R25" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="5">
+        <v>4</v>
+      </c>
+      <c r="T25" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -2055,8 +2226,14 @@
       <c r="R26" s="2">
         <v>3.6669999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="5">
+        <v>4</v>
+      </c>
+      <c r="T26" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -2111,8 +2288,14 @@
       <c r="R27" s="2">
         <v>3.6669999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="5">
+        <v>4</v>
+      </c>
+      <c r="T27" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
@@ -2167,8 +2350,14 @@
       <c r="R28" s="2">
         <v>3.6669999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="5">
+        <v>5</v>
+      </c>
+      <c r="T28" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
@@ -2223,8 +2412,14 @@
       <c r="R29" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="5">
+        <v>5</v>
+      </c>
+      <c r="T29" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -2279,8 +2474,14 @@
       <c r="R30" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="5">
+        <v>4</v>
+      </c>
+      <c r="T30" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -2335,8 +2536,14 @@
       <c r="R31" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="5">
+        <v>5</v>
+      </c>
+      <c r="T31" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -2391,8 +2598,14 @@
       <c r="R32" s="2">
         <v>4.6669999999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="5">
+        <v>4</v>
+      </c>
+      <c r="T32" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
@@ -2447,8 +2660,14 @@
       <c r="R33" s="2">
         <v>4.6669999999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="5">
+        <v>4</v>
+      </c>
+      <c r="T33" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
@@ -2503,8 +2722,14 @@
       <c r="R34" s="2">
         <v>4.6669999999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="5">
+        <v>4</v>
+      </c>
+      <c r="T34" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -2559,8 +2784,14 @@
       <c r="R35" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="5">
+        <v>5</v>
+      </c>
+      <c r="T35" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
@@ -2615,8 +2846,14 @@
       <c r="R36" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S36" s="5">
+        <v>4</v>
+      </c>
+      <c r="T36" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -2671,8 +2908,14 @@
       <c r="R37" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S37" s="5">
+        <v>5</v>
+      </c>
+      <c r="T37" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -2727,8 +2970,14 @@
       <c r="R38" s="2">
         <v>6.6669999999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="5">
+        <v>5</v>
+      </c>
+      <c r="T38" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -2783,8 +3032,14 @@
       <c r="R39" s="2">
         <v>6.6669999999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="5">
+        <v>5</v>
+      </c>
+      <c r="T39" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -2839,8 +3094,14 @@
       <c r="R40" s="2">
         <v>6.6669999999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="5">
+        <v>5</v>
+      </c>
+      <c r="T40" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -2895,8 +3156,14 @@
       <c r="R41" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="5">
+        <v>4</v>
+      </c>
+      <c r="T41" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -2951,8 +3218,14 @@
       <c r="R42" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="5">
+        <v>4</v>
+      </c>
+      <c r="T42" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
@@ -3007,8 +3280,14 @@
       <c r="R43" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="5">
+        <v>4</v>
+      </c>
+      <c r="T43" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
@@ -3063,8 +3342,14 @@
       <c r="R44" s="2">
         <v>4.3330000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="5">
+        <v>5</v>
+      </c>
+      <c r="T44" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -3119,8 +3404,14 @@
       <c r="R45" s="2">
         <v>4.3330000000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="5">
+        <v>5</v>
+      </c>
+      <c r="T45" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>41</v>
       </c>
@@ -3175,8 +3466,14 @@
       <c r="R46" s="2">
         <v>4.3330000000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="5">
+        <v>5</v>
+      </c>
+      <c r="T46" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>42</v>
       </c>
@@ -3231,8 +3528,14 @@
       <c r="R47" s="2">
         <v>4.6669999999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="5">
+        <v>6</v>
+      </c>
+      <c r="T47" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
@@ -3287,8 +3590,14 @@
       <c r="R48" s="2">
         <v>4.6669999999999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="5">
+        <v>5</v>
+      </c>
+      <c r="T48" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>42</v>
       </c>
@@ -3343,8 +3652,14 @@
       <c r="R49" s="2">
         <v>4.6669999999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="5">
+        <v>4</v>
+      </c>
+      <c r="T49" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>43</v>
       </c>
@@ -3399,8 +3714,14 @@
       <c r="R50" s="2">
         <v>4.6669999999999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="5">
+        <v>5</v>
+      </c>
+      <c r="T50" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>43</v>
       </c>
@@ -3455,8 +3776,14 @@
       <c r="R51" s="2">
         <v>4.6669999999999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="5">
+        <v>2</v>
+      </c>
+      <c r="T51" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>43</v>
       </c>
@@ -3511,8 +3838,14 @@
       <c r="R52" s="2">
         <v>4.6669999999999998</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="5">
+        <v>2</v>
+      </c>
+      <c r="T52" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>44</v>
       </c>
@@ -3567,8 +3900,14 @@
       <c r="R53" s="2">
         <v>4.3330000000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="5">
+        <v>5</v>
+      </c>
+      <c r="T53" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
@@ -3623,8 +3962,14 @@
       <c r="R54" s="2">
         <v>4.3330000000000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="5">
+        <v>5</v>
+      </c>
+      <c r="T54" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>44</v>
       </c>
@@ -3679,8 +4024,14 @@
       <c r="R55" s="2">
         <v>4.3330000000000002</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="5">
+        <v>6</v>
+      </c>
+      <c r="T55" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>45</v>
       </c>
@@ -3735,8 +4086,14 @@
       <c r="R56" s="2">
         <v>5.3330000000000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="5">
+        <v>5</v>
+      </c>
+      <c r="T56" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>45</v>
       </c>
@@ -3791,8 +4148,14 @@
       <c r="R57" s="2">
         <v>5.3330000000000002</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="5">
+        <v>4</v>
+      </c>
+      <c r="T57" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>45</v>
       </c>
@@ -3847,8 +4210,14 @@
       <c r="R58" s="2">
         <v>5.3330000000000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="5">
+        <v>4</v>
+      </c>
+      <c r="T58" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>46</v>
       </c>
@@ -3903,8 +4272,14 @@
       <c r="R59" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="5">
+        <v>4</v>
+      </c>
+      <c r="T59" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>46</v>
       </c>
@@ -3959,8 +4334,14 @@
       <c r="R60" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="5">
+        <v>2</v>
+      </c>
+      <c r="T60" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>46</v>
       </c>
@@ -4015,8 +4396,14 @@
       <c r="R61" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="5">
+        <v>2</v>
+      </c>
+      <c r="T61" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>47</v>
       </c>
@@ -4071,8 +4458,14 @@
       <c r="R62" s="2">
         <v>5.3330000000000002</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="5">
+        <v>5</v>
+      </c>
+      <c r="T62" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>47</v>
       </c>
@@ -4127,8 +4520,14 @@
       <c r="R63" s="2">
         <v>5.3330000000000002</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="5">
+        <v>5</v>
+      </c>
+      <c r="T63" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>47</v>
       </c>
@@ -4183,8 +4582,14 @@
       <c r="R64" s="2">
         <v>5.3330000000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="5">
+        <v>5</v>
+      </c>
+      <c r="T64" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>48</v>
       </c>
@@ -4239,8 +4644,14 @@
       <c r="R65" s="2">
         <v>4.33</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="5">
+        <v>6</v>
+      </c>
+      <c r="T65" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>48</v>
       </c>
@@ -4295,8 +4706,14 @@
       <c r="R66" s="2">
         <v>4.33</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="5">
+        <v>5</v>
+      </c>
+      <c r="T66" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>48</v>
       </c>
@@ -4351,8 +4768,14 @@
       <c r="R67" s="2">
         <v>4.33</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="5">
+        <v>5</v>
+      </c>
+      <c r="T67" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>49</v>
       </c>
@@ -4407,8 +4830,14 @@
       <c r="R68" s="2">
         <v>6.33</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="5">
+        <v>5</v>
+      </c>
+      <c r="T68" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>49</v>
       </c>
@@ -4463,8 +4892,14 @@
       <c r="R69" s="2">
         <v>6.33</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="5">
+        <v>5</v>
+      </c>
+      <c r="T69" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>49</v>
       </c>
@@ -4519,8 +4954,14 @@
       <c r="R70" s="2">
         <v>6.33</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="5">
+        <v>4</v>
+      </c>
+      <c r="T70" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>50</v>
       </c>
@@ -4575,8 +5016,14 @@
       <c r="R71" s="2">
         <v>4.67</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="5">
+        <v>3</v>
+      </c>
+      <c r="T71" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>50</v>
       </c>
@@ -4631,8 +5078,14 @@
       <c r="R72" s="2">
         <v>4.67</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="5">
+        <v>3</v>
+      </c>
+      <c r="T72" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>50</v>
       </c>
@@ -4687,8 +5140,14 @@
       <c r="R73" s="2">
         <v>4.67</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="5">
+        <v>2</v>
+      </c>
+      <c r="T73" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>51</v>
       </c>
@@ -4743,8 +5202,14 @@
       <c r="R74" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>51</v>
       </c>
@@ -4799,8 +5264,14 @@
       <c r="R75" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>51</v>
       </c>
@@ -4855,8 +5326,14 @@
       <c r="R76" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>54</v>
       </c>
@@ -4911,8 +5388,14 @@
       <c r="R77" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>54</v>
       </c>
@@ -4967,8 +5450,14 @@
       <c r="R78" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S78" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>54</v>
       </c>
@@ -5023,8 +5512,14 @@
       <c r="R79" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S79" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>55</v>
       </c>
@@ -5079,8 +5574,14 @@
       <c r="R80" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>55</v>
       </c>
@@ -5135,8 +5636,14 @@
       <c r="R81" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>55</v>
       </c>
@@ -5191,8 +5698,14 @@
       <c r="R82" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>56</v>
       </c>
@@ -5247,8 +5760,14 @@
       <c r="R83" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>56</v>
       </c>
@@ -5303,8 +5822,14 @@
       <c r="R84" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>56</v>
       </c>
@@ -5359,8 +5884,14 @@
       <c r="R85" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>57</v>
       </c>
@@ -5415,8 +5946,14 @@
       <c r="R86" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>57</v>
       </c>
@@ -5471,8 +6008,14 @@
       <c r="R87" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>57</v>
       </c>
@@ -5527,8 +6070,14 @@
       <c r="R88" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>58</v>
       </c>
@@ -5583,8 +6132,14 @@
       <c r="R89" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>58</v>
       </c>
@@ -5639,8 +6194,14 @@
       <c r="R90" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>58</v>
       </c>
@@ -5695,8 +6256,14 @@
       <c r="R91" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>59</v>
       </c>
@@ -5751,8 +6318,14 @@
       <c r="R92" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T92" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>59</v>
       </c>
@@ -5807,8 +6380,14 @@
       <c r="R93" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T93" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>59</v>
       </c>
@@ -5863,8 +6442,14 @@
       <c r="R94" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T94" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>60</v>
       </c>
@@ -5919,8 +6504,14 @@
       <c r="R95" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>60</v>
       </c>
@@ -5975,8 +6566,14 @@
       <c r="R96" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>60</v>
       </c>
@@ -6031,8 +6628,14 @@
       <c r="R97" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>61</v>
       </c>
@@ -6087,8 +6690,14 @@
       <c r="R98" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T98" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>61</v>
       </c>
@@ -6143,8 +6752,14 @@
       <c r="R99" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T99" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>61</v>
       </c>
@@ -6199,8 +6814,14 @@
       <c r="R100" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T100" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>62</v>
       </c>
@@ -6255,8 +6876,14 @@
       <c r="R101" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T101" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>62</v>
       </c>
@@ -6311,8 +6938,14 @@
       <c r="R102" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S102" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T102" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>62</v>
       </c>
@@ -6367,8 +7000,14 @@
       <c r="R103" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S103" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T103" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>63</v>
       </c>
@@ -6423,8 +7062,14 @@
       <c r="R104" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S104" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T104" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>63</v>
       </c>
@@ -6479,8 +7124,14 @@
       <c r="R105" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S105" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T105" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>63</v>
       </c>
@@ -6535,8 +7186,14 @@
       <c r="R106" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S106" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T106" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>64</v>
       </c>
@@ -6591,8 +7248,14 @@
       <c r="R107" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S107" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T107" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>64</v>
       </c>
@@ -6647,8 +7310,14 @@
       <c r="R108" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S108" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T108" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>64</v>
       </c>
@@ -6701,6 +7370,12 @@
         <v>65</v>
       </c>
       <c r="R109" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S109" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T109" s="2" t="s">
         <v>65</v>
       </c>
     </row>
